--- a/biology/Botanique/Diaphananthe_sanfordiana/Diaphananthe_sanfordiana.xlsx
+++ b/biology/Botanique/Diaphananthe_sanfordiana/Diaphananthe_sanfordiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphananthe sanfordiana Szlach. &amp; Olszewski est une espèce de plantes de la famille des Orchidaceae et du genre Diaphananthe, très rare, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée avec une tige courte de 10 cm. Feuilles au nombre de 6, légèrement falciformes, coriaces, lisses, légèrement brillantes, inégalement bilobées au sommet, à lobes falciformes. Inflorescence dense, atteignant 18 cm de longueur, composée de 15 fleurs, pendantes. Fleurs disposées en spirales, unique à chaque nœud. Bractées florales mince, glabres, concaves. Labelle transversalement elliptique, large à la base et tronqué au sommet. Présence d'un callus à la gorge de l’éperon. Éperon plus long que le labelle, incurvé.[style à revoir]
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a d'abord été observée au Cameroun en 1961-1962, sur un seul site, le mont Fébé (Yaoundé[2]), où elle pourrait être éteinte. Par la suite elle a également été signalée au Gabon, entre Oyem et Mitzik[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a d'abord été observée au Cameroun en 1961-1962, sur un seul site, le mont Fébé (Yaoundé), où elle pourrait être éteinte. Par la suite elle a également été signalée au Gabon, entre Oyem et Mitzik.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est probablement ripicole.
 </t>
